--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H2">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J2">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>6.913430657861333</v>
+        <v>0.005904211524444446</v>
       </c>
       <c r="R2">
-        <v>62.22087592075201</v>
+        <v>0.05313790372</v>
       </c>
       <c r="S2">
-        <v>0.003703951664304568</v>
+        <v>4.966170348174363E-06</v>
       </c>
       <c r="T2">
-        <v>0.003703951664304569</v>
+        <v>4.966170348174365E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H3">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J3">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>554.3698245094004</v>
+        <v>1.202329408128889</v>
       </c>
       <c r="R3">
-        <v>4989.328420584603</v>
+        <v>10.82096467316</v>
       </c>
       <c r="S3">
-        <v>0.2970101438418174</v>
+        <v>0.00101130737451849</v>
       </c>
       <c r="T3">
-        <v>0.2970101438418175</v>
+        <v>0.00101130737451849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.231719</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H4">
-        <v>15.695157</v>
+        <v>0.03404</v>
       </c>
       <c r="I4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="J4">
-        <v>0.362499186434781</v>
+        <v>0.001209510404472147</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>115.3219535614917</v>
+        <v>0.2297366408</v>
       </c>
       <c r="R4">
-        <v>1037.897582053425</v>
+        <v>2.0676297672</v>
       </c>
       <c r="S4">
-        <v>0.06178509092865898</v>
+        <v>0.0001932368596054828</v>
       </c>
       <c r="T4">
-        <v>0.06178509092865899</v>
+        <v>0.0001932368596054828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>24.950836</v>
       </c>
       <c r="I5">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J5">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>10.99038859832178</v>
+        <v>4.327703097994224</v>
       </c>
       <c r="R5">
-        <v>98.91349738489602</v>
+        <v>38.94932788194801</v>
       </c>
       <c r="S5">
-        <v>0.005888229759536037</v>
+        <v>0.003640132253388997</v>
       </c>
       <c r="T5">
-        <v>0.005888229759536037</v>
+        <v>0.003640132253388998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>24.950836</v>
       </c>
       <c r="I6">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J6">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
         <v>881.2903607579607</v>
@@ -818,10 +818,10 @@
         <v>7931.613246821645</v>
       </c>
       <c r="S6">
-        <v>0.4721616603984017</v>
+        <v>0.7412739261810052</v>
       </c>
       <c r="T6">
-        <v>0.4721616603984017</v>
+        <v>0.7412739261810052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>24.950836</v>
       </c>
       <c r="I7">
-        <v>0.5762706133406404</v>
+        <v>0.8865539289740954</v>
       </c>
       <c r="J7">
-        <v>0.5762706133406403</v>
+        <v>0.8865539289740952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>183.3291091329889</v>
+        <v>168.39369118072</v>
       </c>
       <c r="R7">
-        <v>1649.9619821969</v>
+        <v>1515.54322062648</v>
       </c>
       <c r="S7">
-        <v>0.09822072318270268</v>
+        <v>0.1416398705397011</v>
       </c>
       <c r="T7">
-        <v>0.09822072318270268</v>
+        <v>0.1416398705397011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H8">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J8">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N8">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q8">
-        <v>1.167756395767111</v>
+        <v>0.547881516549889</v>
       </c>
       <c r="R8">
-        <v>10.509807561904</v>
+        <v>4.930933648949001</v>
       </c>
       <c r="S8">
-        <v>0.0006256392028298624</v>
+        <v>0.0004608359525294752</v>
       </c>
       <c r="T8">
-        <v>0.0006256392028298625</v>
+        <v>0.0004608359525294753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H9">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J9">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>317.889679</v>
       </c>
       <c r="O9">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P9">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q9">
-        <v>93.63931457893678</v>
+        <v>111.5701998126108</v>
       </c>
       <c r="R9">
-        <v>842.7538312104309</v>
+        <v>1004.131798313497</v>
       </c>
       <c r="S9">
-        <v>0.05016836245903496</v>
+        <v>0.09384430346970206</v>
       </c>
       <c r="T9">
-        <v>0.05016836245903497</v>
+        <v>0.09384430346970206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8836963333333333</v>
+        <v>1.052914333333334</v>
       </c>
       <c r="H10">
-        <v>2.651089</v>
+        <v>3.158743</v>
       </c>
       <c r="I10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="J10">
-        <v>0.06123020022457864</v>
+        <v>0.1122365606214325</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q10">
-        <v>19.47917835708055</v>
+        <v>21.31841968186</v>
       </c>
       <c r="R10">
-        <v>175.312605213725</v>
+        <v>191.86577713674</v>
       </c>
       <c r="S10">
-        <v>0.01043619856271381</v>
+        <v>0.01793142119920099</v>
       </c>
       <c r="T10">
-        <v>0.01043619856271381</v>
+        <v>0.01793142119920099</v>
       </c>
     </row>
   </sheetData>
